--- a/TO List.xlsx
+++ b/TO List.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teja\Documents\GitHub\pehla_nasha\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,13 @@
   <definedNames>
     <definedName name="query" localSheetId="0" hidden="1">query!$A$1:$L$103</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Teja\Downloads\query.iqy" keepAlive="1" name="query" type="5" refreshedVersion="6" minRefreshableVersion="3" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Teja\Downloads\query.iqy" keepAlive="1" name="query" type="5" refreshedVersion="6" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;5B6406C6-5234-4F44-9EE2-3D6F3D567140&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;{EDA90BAB-12D0-4255-B7D4-A7CB8702028E}&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://innosoft1.sharepoint.com/sites/DatabasePortal/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;/sites/DatabasePortal/Lists/ClientTOMODS&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1068,7 +1068,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="query" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query" backgroundRefresh="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="Project" tableColumnId="1"/>
@@ -1089,21 +1089,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_query" displayName="Table_query" ref="A1:L103" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_query" displayName="Table_query" ref="A1:L103" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="Project" name="Project" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" uniqueName="Consultant_x005f_x0020_Name" name="Consultant Name" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="3" uniqueName="Hours" name="Hours" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="4" uniqueName="Rate" name="Rate" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="5" uniqueName="Allocated_x005f_x0020_Amount" name="Allocated Amount" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="6" uniqueName="Additional_x005f_x0020_Expenses" name="Additional Expenses" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="7" uniqueName="Client_x005f_x0020_TO" name="Client TO" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="8" uniqueName="MOD" name="MOD" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="9" uniqueName="Consultant_x005f_x0020_Start_x005f_x0020_Dat" name="Performance Period Start Date" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="10" uniqueName="Consultant_x005f_x0020_End_x005f_x0020_Date" name="Performance Period End Date" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="11" uniqueName="FSObjType" name="Item Type" queryTableFieldId="12" dataDxfId="1"/>
-    <tableColumn id="12" uniqueName="FileDirRef" name="Path" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Project" name="Project" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Consultant_x005f_x0020_Name" name="Consultant Name" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Hours" name="Hours" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Rate" name="Rate" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="Allocated_x005f_x0020_Amount" name="Allocated Amount" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Additional_x005f_x0020_Expenses" name="Additional Expenses" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Client_x005f_x0020_TO" name="Client TO" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="MOD" name="MOD" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="Consultant_x005f_x0020_Start_x005f_x0020_Dat" name="Performance Period Start Date" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="Consultant_x005f_x0020_End_x005f_x0020_Date" name="Performance Period End Date" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="FSObjType" name="Item Type" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="FileDirRef" name="Path" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1405,11 +1405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
